--- a/Epic 3 - ReportApp/ReportApp/Templates/CurrentShopItemsTemplate.xlsx
+++ b/Epic 3 - ReportApp/ReportApp/Templates/CurrentShopItemsTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Current Shop Items Report</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Point of Purchase</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,84 +118,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +448,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,32 +458,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -554,20 +500,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
